--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3421.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3421.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146794827067432</v>
+        <v>1.387524366378784</v>
       </c>
       <c r="B1">
-        <v>1.729138783693679</v>
+        <v>2.577778100967407</v>
       </c>
       <c r="C1">
-        <v>3.767547164103763</v>
+        <v>6.601644992828369</v>
       </c>
       <c r="D1">
-        <v>4.8670181595407</v>
+        <v>2.407756328582764</v>
       </c>
       <c r="E1">
-        <v>1.393003341937231</v>
+        <v>1.208657026290894</v>
       </c>
     </row>
   </sheetData>
